--- a/ROSARIO_DO_SUL.xlsx
+++ b/ROSARIO_DO_SUL.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DF60919-26A9-49A7-97D6-147CDA9667C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7AA3436-1864-4655-81EE-B70C49E22568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="6" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="1" r:id="rId2"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="2" r:id="rId3"/>
     <sheet name="CPIP" sheetId="3" r:id="rId4"/>
     <sheet name="Recolhimento x Eliminacao" sheetId="4" r:id="rId5"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="5" r:id="rId6"/>
+    <sheet name="DGC" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="292">
   <si>
     <t>Número</t>
   </si>
@@ -889,6 +890,18 @@
   </si>
   <si>
     <t>ROSÁRIO DO SUL</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>MAOBRAS/MATIC</t>
+  </si>
+  <si>
+    <t>Atraso na correção do ateste.</t>
   </si>
 </sst>
 </file>
@@ -898,7 +911,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -951,6 +964,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -965,7 +991,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1012,6 +1038,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE8B2"/>
         <bgColor rgb="FFFCE8B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1084,9 +1116,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1169,12 +1201,16 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{172275F9-4936-419A-A626-6F9315133CAA}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{74717B82-1D3E-4B33-BFB3-9694D72E2E63}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1204,10 +1240,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADFD5322-48FA-4315-BA07-D1E33E2DE276}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3948CD1B-8CE1-4A97-8DCB-AA58F772CC55}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1245,7 +1281,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E99C184-C11C-4907-B2B0-0B375F815297}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC70FF86-761A-415F-905E-1D8581986778}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1308,7 +1344,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EAFCFD-33C6-4DCB-8706-A6E6BAFD5FFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD7AB156-84C4-4D99-A5BE-6E473618D61D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,7 +1363,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC09115-E529-8B91-CE07-C5A7C072A0F1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658222CB-46E4-C8B1-A2CA-6E5CCCAE5911}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1376,7 +1412,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3DAB910-4A90-55EB-66FB-7D2BFC6296CB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD0C0FF-F178-809F-D163-6551BF0E9904}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1395,7 +1431,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8794558C-9219-6726-AD96-B8CADD5A3824}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA79A71B-10A0-9083-1790-3B1E98A7183B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1426,7 +1462,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575F6E4E-A833-99D0-2106-EA50B93C0128}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3635C8E1-510C-E2B1-4B1E-4BBA98843CCA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1457,7 +1493,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33933C88-C1E7-4406-C77C-D758E29CF0FD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F723AF-5F29-474D-064A-5F3AEDCBF9D2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1500,7 +1536,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94085D89-E506-4E65-8839-9E2A4E63F193}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A580D2-72AA-477F-A393-F6C2242A9DF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,7 +1574,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87D646B-1C50-4C86-A308-33922BAD75C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF13F628-D0B9-405C-BBE9-C0905C0554B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1581,7 +1617,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A4251E-2A62-496A-ABB7-04F30A8BD701}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D8336C-A710-4F8D-8705-CDDD2214BF7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1894,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B991A708-CFFD-482A-9472-524F92CB70DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2358D59C-AF04-4E05-80B0-F816A6404EDA}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1906,98 +1942,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="35"/>
-    <col min="6" max="6" width="2" style="35" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="35"/>
+    <col min="1" max="5" width="12.5703125" style="37"/>
+    <col min="6" max="6" width="2" style="37" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="34"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="34"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="34"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="34"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="34"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="34"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="34"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="34"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="34"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="34"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="34"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="34"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="34"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="34"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="34"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="34"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="34"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="34"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="34"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="34"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="34"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="34"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="34"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="34"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="34"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="34"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="34"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="34"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="34"/>
+      <c r="F29" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5391,4 +5427,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/ROSARIO_DO_SUL.xlsx
+++ b/ROSARIO_DO_SUL.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7AA3436-1864-4655-81EE-B70C49E22568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{836F4B16-7203-46FD-8A9D-E9E3B199965E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="1" r:id="rId2"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="2" r:id="rId3"/>
     <sheet name="CPIP" sheetId="3" r:id="rId4"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="4" r:id="rId5"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="5" r:id="rId6"/>
-    <sheet name="DGC" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="4" r:id="rId5"/>
+    <sheet name="DGC" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="289">
   <si>
     <t>Número</t>
   </si>
@@ -881,15 +880,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>ROSÁRIO DO SUL</t>
   </si>
   <si>
     <t>TEMÁTICA</t>
@@ -1118,7 +1108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1183,24 +1173,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1210,7 +1182,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{74717B82-1D3E-4B33-BFB3-9694D72E2E63}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{04148CE4-7A2B-4C38-852E-C9C934B6618C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1240,10 +1212,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3948CD1B-8CE1-4A97-8DCB-AA58F772CC55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8804A669-7562-417C-816E-3141318A6D00}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1253,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC70FF86-761A-415F-905E-1D8581986778}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{193A2EB4-358A-4338-B4CF-A4B1BE0C1723}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1316,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD7AB156-84C4-4D99-A5BE-6E473618D61D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B88EFE82-B7E5-4B61-8FA6-98C14FA22427}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1335,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658222CB-46E4-C8B1-A2CA-6E5CCCAE5911}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E99007CE-8548-A046-D35B-C9FA33EA095A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1412,7 +1384,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD0C0FF-F178-809F-D163-6551BF0E9904}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF501063-9DDB-7EF4-9E09-D9517E9D133A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1431,7 +1403,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA79A71B-10A0-9083-1790-3B1E98A7183B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14393491-E679-D67D-05E0-6AFCE3048984}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1462,7 +1434,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3635C8E1-510C-E2B1-4B1E-4BBA98843CCA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA4F4F3-3FFE-6FA6-6288-1314CAA2C04F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1493,7 +1465,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F723AF-5F29-474D-064A-5F3AEDCBF9D2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BD1569-4758-F47A-C3E0-F7652930CBD1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1536,7 +1508,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A580D2-72AA-477F-A393-F6C2242A9DF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375C993C-9FF4-4AA6-8805-DFC5876782F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1546,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF13F628-D0B9-405C-BBE9-C0905C0554B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C319BE85-1D36-4EC6-A084-2878D8516FF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1589,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D8336C-A710-4F8D-8705-CDDD2214BF7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308CF4DF-7165-4760-A9AE-DB7EB9709772}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2358D59C-AF04-4E05-80B0-F816A6404EDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2D0B0E-4941-4064-93E6-D174F1E98CC4}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1942,98 +1914,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="31"/>
+    <col min="6" max="6" width="2" style="31" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="31" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5383,54 +5355,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="E1" s="30">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="B2" s="33">
-        <v>34</v>
-      </c>
-      <c r="C2" s="31">
-        <v>2.2483798439359879E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5443,25 +5367,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>288</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/ROSARIO_DO_SUL.xlsx
+++ b/ROSARIO_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{836F4B16-7203-46FD-8A9D-E9E3B199965E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{079C2024-0448-445D-A0A1-E037C996A90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1182,7 +1182,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{04148CE4-7A2B-4C38-852E-C9C934B6618C}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{670599A5-50DC-4119-9550-9AB308B27231}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1212,10 +1212,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8804A669-7562-417C-816E-3141318A6D00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DB11C1-D840-47EE-AB9C-95038F843F5D}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1253,7 +1253,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{193A2EB4-358A-4338-B4CF-A4B1BE0C1723}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86F82AD9-F4E5-4F98-A383-218B53C8FE91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1316,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B88EFE82-B7E5-4B61-8FA6-98C14FA22427}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3FD9316-496D-4BF4-963F-C6C2939AB833}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1335,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E99007CE-8548-A046-D35B-C9FA33EA095A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0AE09FD-9A41-2B21-6883-6F57E14EC0D8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1384,7 +1384,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF501063-9DDB-7EF4-9E09-D9517E9D133A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A52FE0-28B4-56F5-1E94-CF04D7FC5180}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1403,7 +1403,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14393491-E679-D67D-05E0-6AFCE3048984}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490BE09F-A42C-4DD6-8AA3-081CD4636D41}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1434,7 +1434,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA4F4F3-3FFE-6FA6-6288-1314CAA2C04F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{995E9C16-5A4C-EC0D-2448-C9AC4785EEAC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1465,7 +1465,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BD1569-4758-F47A-C3E0-F7652930CBD1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A8BD4A-B247-F234-1A2E-DF5BE3445E8D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1508,7 +1508,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375C993C-9FF4-4AA6-8805-DFC5876782F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1B89C7B-130E-4E47-95A4-4C0442D2C1F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1546,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C319BE85-1D36-4EC6-A084-2878D8516FF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2391C46D-2B02-4EA2-BB01-F7A0137B6BAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,50 +1571,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308CF4DF-7165-4760-A9AE-DB7EB9709772}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1902,7 +1858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2D0B0E-4941-4064-93E6-D174F1E98CC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97DFD78-2488-4859-9932-75320A6C8CD9}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/ROSARIO_DO_SUL.xlsx
+++ b/ROSARIO_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{079C2024-0448-445D-A0A1-E037C996A90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31F47E79-B7E5-409D-9656-F6C69EB8197F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -904,14 +904,6 @@
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -939,6 +931,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1055,21 +1055,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1103,6 +1088,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1110,79 +1110,79 @@
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{670599A5-50DC-4119-9550-9AB308B27231}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{5C95EC2D-1B2C-4373-95B1-8E834AD1648C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1212,7 +1212,7 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DB11C1-D840-47EE-AB9C-95038F843F5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7D3764-C21B-4F2A-A990-E91BED5C9422}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
               <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
@@ -1253,7 +1253,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86F82AD9-F4E5-4F98-A383-218B53C8FE91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA0196CC-FDD5-4328-B0D8-512D564256A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1316,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3FD9316-496D-4BF4-963F-C6C2939AB833}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A42433A-08ED-4951-A20B-D5EE3231B904}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1335,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0AE09FD-9A41-2B21-6883-6F57E14EC0D8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B78D80-A544-E957-F402-C4B6FA56D78B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1384,7 +1384,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A52FE0-28B4-56F5-1E94-CF04D7FC5180}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE86582B-F334-693D-C04C-783CE3BF75A4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1403,7 +1403,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490BE09F-A42C-4DD6-8AA3-081CD4636D41}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFED99B9-FAE6-03F6-27CA-FD7BBAC178F6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1434,7 +1434,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{995E9C16-5A4C-EC0D-2448-C9AC4785EEAC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899B36DA-DD92-A709-976B-966BE0A2EEE1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1465,7 +1465,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A8BD4A-B247-F234-1A2E-DF5BE3445E8D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C3513D8-77C4-406B-D72B-FD6FF8A434B0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1508,7 +1508,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1B89C7B-130E-4E47-95A4-4C0442D2C1F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A11EDD10-F906-49F2-BD89-AD35DEBC0F80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1546,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2391C46D-2B02-4EA2-BB01-F7A0137B6BAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBFCFF42-218B-4603-B086-6D8735190C78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +1858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97DFD78-2488-4859-9932-75320A6C8CD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED80B9BE-9C03-4817-B878-826C6D990DDD}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
